--- a/tests/testthat/fixtures/ex2/tables/mv_person.xlsx
+++ b/tests/testthat/fixtures/ex2/tables/mv_person.xlsx
@@ -72,6 +72,9 @@
     <t xml:space="preserve">15</t>
   </si>
   <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
     <t xml:space="preserve">OM</t>
   </si>
   <si>
@@ -84,28 +87,25 @@
     <t xml:space="preserve">ALL</t>
   </si>
   <si>
-    <t xml:space="preserve">0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63</t>
+    <t xml:space="preserve">0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
   </si>
   <si>
     <t xml:space="preserve">0.39</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69</t>
+    <t xml:space="preserve">2.78</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>65.2</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>28.93</v>
+        <v>29.07</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>85.67</v>
+        <v>85.53</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>13.27</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>33.47</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="3">
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>19.73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>12.67</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>10.27</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="6">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>6.07</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="8">
@@ -614,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>3.47</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>2.93</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="10">
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1.27</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="11">
@@ -638,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="12">
@@ -646,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
@@ -654,7 +654,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
@@ -662,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="15">
@@ -670,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="16">
@@ -686,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>16.87</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="3">
@@ -724,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>22.73</v>
+        <v>23.47</v>
       </c>
     </row>
     <row r="4">
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>17.07</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="5">
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>13.07</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="6">
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>8.87</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="7">
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>7.13</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="8">
@@ -764,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>5.13</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="9">
@@ -772,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="10">
@@ -780,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1.93</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="11">
@@ -788,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="12">
@@ -804,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="14">
@@ -812,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -828,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17">
@@ -836,7 +836,15 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.67</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -855,41 +863,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -934,7 +942,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
